--- a/data/Scotch Data/IBSC Teacher Scotch 5.xlsx
+++ b/data/Scotch Data/IBSC Teacher Scotch 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/Scotch Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_DD0BA5DFD615DA97A2CA9C9188BCDA0A7ACE1314" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F76E5524-7069-4344-B337-A0A103F1DE8C}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_DD0BA5DFD615DA97A2CA9C9188BCDA0A7ACE1314" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15DFDCFB-63F9-4AE8-A765-672C188F78CB}"/>
   <bookViews>
-    <workbookView xWindow="14570" yWindow="3240" windowWidth="15870" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="37690" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Attributes" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,12 +674,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="17.9140625" customWidth="1"/>
     <col min="13" max="13" width="10.58203125" customWidth="1"/>
     <col min="14" max="14" width="12.08203125" customWidth="1"/>
     <col min="15" max="15" width="10.25" customWidth="1"/>
@@ -688,7 +689,7 @@
     <col min="18" max="18" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -818,7 +819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -883,7 +884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -948,7 +949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2197,9 +2198,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2451,9 +2452,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2705,9 +2706,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2959,9 +2960,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3213,9 +3214,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3467,9 +3468,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
